--- a/SceneServer/tools/Xlsx/kx_point_trigger.xlsx
+++ b/SceneServer/tools/Xlsx/kx_point_trigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13800"/>
+    <workbookView windowHeight="14430"/>
   </bookViews>
   <sheets>
     <sheet name="kx_quyudingyi" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>idx</t>
   </si>
@@ -152,59 +152,81 @@
   </si>
   <si>
     <t>副本五2去1</t>
+  </si>
+  <si>
+    <t>进入攻城前厅</t>
+  </si>
+  <si>
+    <t>离开攻城前厅</t>
+  </si>
+  <si>
+    <t>攻城大厅到火焰</t>
+  </si>
+  <si>
+    <t>攻城大厅到海啸</t>
+  </si>
+  <si>
+    <t>攻城大厅到宁静</t>
+  </si>
+  <si>
+    <t>攻城大厅到迷雾</t>
+  </si>
+  <si>
+    <t>火焰到攻城大厅</t>
+  </si>
+  <si>
+    <t>CastleFight</t>
+  </si>
+  <si>
+    <t>OnPointTrigger_Fire</t>
+  </si>
+  <si>
+    <t>海啸到攻城大厅</t>
+  </si>
+  <si>
+    <t>OnPointTrigger_TidalWave</t>
+  </si>
+  <si>
+    <t>宁静到攻城大厅</t>
+  </si>
+  <si>
+    <t>OnPointTrigger_Ordinary</t>
+  </si>
+  <si>
+    <t>迷雾到攻城大厅</t>
+  </si>
+  <si>
+    <t>OnPointTrigger_Fog</t>
+  </si>
+  <si>
+    <t>攻城前厅进入内城</t>
+  </si>
+  <si>
+    <t>OnPointTrigger_Main</t>
+  </si>
+  <si>
+    <t>内城进入大厅</t>
+  </si>
+  <si>
+    <t>大厅进入内城</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +246,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -233,41 +294,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,12 +347,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -338,49 +388,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,121 +526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,21 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,6 +611,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,148 +684,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,58 +836,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1108,15 +1158,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
@@ -1129,7 +1179,8 @@
     <col min="9" max="10" width="12.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="15.625" style="1"/>
   </cols>
@@ -1266,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:12">
+    <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1294,14 +1345,8 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
+    <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1328,12 +1373,6 @@
       </c>
       <c r="I6" s="1">
         <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
@@ -1364,9 +1403,6 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
@@ -1408,11 +1444,448 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22645</v>
+      </c>
+      <c r="D9" s="1">
+        <v>34089</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>21155</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30866</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-485</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21155</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30858</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22662</v>
+      </c>
+      <c r="G10" s="1">
+        <v>34087</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-6223</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21155</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31483</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>21797</v>
+      </c>
+      <c r="G11" s="1">
+        <v>31488</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1218</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21120</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31503</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>22452</v>
+      </c>
+      <c r="G12" s="1">
+        <v>31467</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-5670</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21155</v>
+      </c>
+      <c r="D13" s="1">
+        <v>31563</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>23032</v>
+      </c>
+      <c r="G13" s="1">
+        <v>31555</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-501</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21189</v>
+      </c>
+      <c r="D14" s="1">
+        <v>31543</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>23745</v>
+      </c>
+      <c r="G14" s="1">
+        <v>31522</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-818</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21802</v>
+      </c>
+      <c r="D15" s="1">
+        <v>31488</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>21155</v>
+      </c>
+      <c r="G15" s="1">
+        <v>31487</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-581</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22452</v>
+      </c>
+      <c r="D16" s="1">
+        <v>31462</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>21125</v>
+      </c>
+      <c r="G16" s="1">
+        <v>31506</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-581</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:14">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1">
+        <v>23027</v>
+      </c>
+      <c r="D17" s="1">
+        <v>31556</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>21155</v>
+      </c>
+      <c r="G17" s="1">
+        <v>31557</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-581</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:14">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1">
+        <v>23745</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31545</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>21184</v>
+      </c>
+      <c r="G18" s="1">
+        <v>31540</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-581</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:14">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21177</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30902</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>21792</v>
+      </c>
+      <c r="G19" s="1">
+        <v>30881</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-536</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:14">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21792</v>
+      </c>
+      <c r="D20" s="1">
+        <v>30865</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
+      <c r="F20" s="1">
+        <v>21148</v>
+      </c>
+      <c r="G20" s="1">
+        <v>31526</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-581</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:14">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21143</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31529</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>21792</v>
+      </c>
+      <c r="G21" s="1">
+        <v>30881</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-536</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
